--- a/Beta.xlsx
+++ b/Beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3247FF07-4111-48C7-A4F3-2982DA3F73B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFA74D7-8FCA-41B7-8AA1-CA4E788DCB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="1680" windowWidth="26070" windowHeight="14550" xr2:uid="{0D0BFAC2-49F0-4A84-A2CC-B4382A236F86}"/>
+    <workbookView xWindow="5130" yWindow="2175" windowWidth="26070" windowHeight="14550" xr2:uid="{0D0BFAC2-49F0-4A84-A2CC-B4382A236F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12273,7 +12273,7 @@
     <v>45801</v>
     <v>0</v>
     <v>1</v>
-    <v>638832960000000000,638834037473742687,0</v>
+    <v>638832960000000000,638834040320050144,0</v>
     <v>0</v>
     <v>a1xzim</v>
     <v>XNAS:MSFT</v>
@@ -12689,7 +12689,7 @@
   <dimension ref="B2:N270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Beta.xlsx
+++ b/Beta.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698BEE32-28A4-440F-B238-87F7D89603C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091CF4AB-5B24-4915-8090-591E7189A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{0D0BFAC2-49F0-4A84-A2CC-B4382A236F86}"/>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{B7129F72-2244-45C8-A9AC-A3FCD445A191}"/>
+    <workbookView xWindow="4980" yWindow="1965" windowWidth="26070" windowHeight="14550" xr2:uid="{0D0BFAC2-49F0-4A84-A2CC-B4382A236F86}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT" sheetId="2" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -19803,7 +19802,6 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -19933,9 +19931,6 @@
   <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
@@ -20175,7 +20170,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
@@ -20190,7 +20184,6 @@
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -35781,7 +35774,6 @@
   <dimension ref="A2:AY221"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
